--- a/uploads/monthly_expense_data.xlsx
+++ b/uploads/monthly_expense_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,18 +441,286 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>간편 결제</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>교육</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>교통, 자동차</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>생활, 쇼핑</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>술, 유흥</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>여행, 숙박</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>의료</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>이체</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>주거, 통신</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>취미, 여가, 운동</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>카페, 간식</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>패션, 뷰티</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>편의점, 마트</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2024-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3087186</v>
+      </c>
+      <c r="C2" t="n">
+        <v>150000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3678800</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1529226</v>
+      </c>
+      <c r="F2" t="n">
+        <v>28000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>80000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>671000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>73500</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>29422945</v>
+      </c>
+      <c r="L2" t="n">
+        <v>650000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>32000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>32000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>431550</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10939472</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16800</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3014100</v>
+      </c>
+      <c r="E3" t="n">
+        <v>56344</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4169680</v>
+      </c>
+      <c r="I3" t="n">
+        <v>312800</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8300680</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>113500</v>
+      </c>
+      <c r="N3" t="n">
+        <v>205100</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>497641</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>2024-11</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>57777</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
